--- a/natmiOut/OldD2/LR-pairs_lrc2p/Wnt2-Fzd4.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Wnt2-Fzd4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -86,6 +86,12 @@
   </si>
   <si>
     <t>ECs</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
   <si>
     <t>Neutro</t>
@@ -449,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,16 +537,16 @@
         <v>23</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.460596825690902</v>
+        <v>0.574538</v>
       </c>
       <c r="H2">
-        <v>0.460596825690902</v>
+        <v>1.723614</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -549,34 +555,34 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>33.4780344832873</v>
+        <v>33.6320075</v>
       </c>
       <c r="N2">
-        <v>33.4780344832873</v>
+        <v>67.264015</v>
       </c>
       <c r="O2">
-        <v>0.4043414839346897</v>
+        <v>0.3908110491225105</v>
       </c>
       <c r="P2">
-        <v>0.4043414839346897</v>
+        <v>0.3281482467916435</v>
       </c>
       <c r="Q2">
-        <v>15.41987641337269</v>
+        <v>19.322866325035</v>
       </c>
       <c r="R2">
-        <v>15.41987641337269</v>
+        <v>115.93719795021</v>
       </c>
       <c r="S2">
-        <v>0.4043414839346897</v>
+        <v>0.3908110491225105</v>
       </c>
       <c r="T2">
-        <v>0.4043414839346897</v>
+        <v>0.3281482467916435</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,16 +599,16 @@
         <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.460596825690902</v>
+        <v>0.574538</v>
       </c>
       <c r="H3">
-        <v>0.460596825690902</v>
+        <v>1.723614</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -611,34 +617,34 @@
         <v>1</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>11.1766780937579</v>
+        <v>12.015213</v>
       </c>
       <c r="N3">
-        <v>11.1766780937579</v>
+        <v>36.045639</v>
       </c>
       <c r="O3">
-        <v>0.1349898426129662</v>
+        <v>0.1396193194224409</v>
       </c>
       <c r="P3">
-        <v>0.1349898426129662</v>
+        <v>0.1758490515669409</v>
       </c>
       <c r="Q3">
-        <v>5.14794245175393</v>
+        <v>6.903196446594</v>
       </c>
       <c r="R3">
-        <v>5.14794245175393</v>
+        <v>62.128768019346</v>
       </c>
       <c r="S3">
-        <v>0.1349898426129662</v>
+        <v>0.1396193194224409</v>
       </c>
       <c r="T3">
-        <v>0.1349898426129662</v>
+        <v>0.1758490515669409</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,16 +661,16 @@
         <v>24</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.460596825690902</v>
+        <v>0.574538</v>
       </c>
       <c r="H4">
-        <v>0.460596825690902</v>
+        <v>1.723614</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -676,31 +682,31 @@
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>19.8206143669879</v>
+        <v>0.122567</v>
       </c>
       <c r="N4">
-        <v>19.8206143669879</v>
+        <v>0.367701</v>
       </c>
       <c r="O4">
-        <v>0.2393896998238043</v>
+        <v>0.001424254495001488</v>
       </c>
       <c r="P4">
-        <v>0.2393896998238043</v>
+        <v>0.001793833426290924</v>
       </c>
       <c r="Q4">
-        <v>9.129312060678114</v>
+        <v>0.070419399046</v>
       </c>
       <c r="R4">
-        <v>9.129312060678114</v>
+        <v>0.6337745914139999</v>
       </c>
       <c r="S4">
-        <v>0.2393896998238043</v>
+        <v>0.001424254495001488</v>
       </c>
       <c r="T4">
-        <v>0.2393896998238043</v>
+        <v>0.001793833426290924</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,16 +723,16 @@
         <v>25</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.460596825690902</v>
+        <v>0.574538</v>
       </c>
       <c r="H5">
-        <v>0.460596825690902</v>
+        <v>1.723614</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -738,31 +744,155 @@
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>18.3211107538974</v>
+        <v>0.1323796666666667</v>
       </c>
       <c r="N5">
-        <v>18.3211107538974</v>
+        <v>0.397139</v>
       </c>
       <c r="O5">
-        <v>0.2212789736285398</v>
+        <v>0.001538279759615546</v>
       </c>
       <c r="P5">
-        <v>0.2212789736285398</v>
+        <v>0.001937447037358482</v>
       </c>
       <c r="Q5">
-        <v>8.438645456376591</v>
+        <v>0.07605714892733334</v>
       </c>
       <c r="R5">
-        <v>8.438645456376591</v>
+        <v>0.684514340346</v>
       </c>
       <c r="S5">
-        <v>0.2212789736285398</v>
+        <v>0.001538279759615546</v>
       </c>
       <c r="T5">
-        <v>0.2212789736285398</v>
+        <v>0.001937447037358482</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0.574538</v>
+      </c>
+      <c r="H6">
+        <v>1.723614</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>20.59650833333334</v>
+      </c>
+      <c r="N6">
+        <v>61.789525</v>
+      </c>
+      <c r="O6">
+        <v>0.2393357883858265</v>
+      </c>
+      <c r="P6">
+        <v>0.3014408863169769</v>
+      </c>
+      <c r="Q6">
+        <v>11.83347670481667</v>
+      </c>
+      <c r="R6">
+        <v>106.50129034335</v>
+      </c>
+      <c r="S6">
+        <v>0.2393357883858265</v>
+      </c>
+      <c r="T6">
+        <v>0.3014408863169769</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0.574538</v>
+      </c>
+      <c r="H7">
+        <v>1.723614</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>19.558276</v>
+      </c>
+      <c r="N7">
+        <v>39.116552</v>
+      </c>
+      <c r="O7">
+        <v>0.2272713088146052</v>
+      </c>
+      <c r="P7">
+        <v>0.1908305348607893</v>
+      </c>
+      <c r="Q7">
+        <v>11.236972776488</v>
+      </c>
+      <c r="R7">
+        <v>67.421836658928</v>
+      </c>
+      <c r="S7">
+        <v>0.2272713088146052</v>
+      </c>
+      <c r="T7">
+        <v>0.1908305348607893</v>
       </c>
     </row>
   </sheetData>
